--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_6_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_6_6.xlsx
@@ -478,404 +478,404 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_0</t>
+          <t>model_6_6_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.261187389609702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.7094970306718658</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.0974110662837453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.03778898289354804</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8176478743553162</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.121598839759827</v>
       </c>
       <c r="H2" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.334409952163696</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.221745491027832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_22</t>
+          <t>model_6_6_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2626522905978483</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.6967094132133735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.09904440297645645</v>
       </c>
       <c r="E3" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.03304994010551021</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8160266280174255</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.113209009170532</v>
       </c>
       <c r="H3" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.331995368003845</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.216166377067566</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_21</t>
+          <t>model_6_6_19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2638078520893516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.6860438494014527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1009420516084276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.02878243881068054</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8147478103637695</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.106211304664612</v>
       </c>
       <c r="H4" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.329189658164978</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.211142539978027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_20</t>
+          <t>model_6_6_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2646009146409307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.6862405635753832</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1041922205818138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.02691942198848229</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8138700723648071</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.106340408325195</v>
       </c>
       <c r="H5" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.324384570121765</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.208949208259583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_19</t>
+          <t>model_6_6_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2649180742668088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.676846230287782</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1018838306880262</v>
       </c>
       <c r="E6" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.02551172158786419</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8135190606117249</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.100176692008972</v>
       </c>
       <c r="H6" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.327797293663025</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.207291960716248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_18</t>
+          <t>model_6_6_21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2652408007370126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.6831741420904085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1063303563379089</v>
       </c>
       <c r="E7" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.02475073820771345</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8131619095802307</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.104328513145447</v>
       </c>
       <c r="H7" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.321223378181458</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.206396102905273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_17</t>
+          <t>model_6_6_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2673964460267421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.6636608667224024</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1090051601006946</v>
       </c>
       <c r="E8" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.01741279534692119</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8107762932777405</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.091525793075562</v>
       </c>
       <c r="H8" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.317269086837769</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.197757482528687</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_16</t>
+          <t>model_6_6_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2681706057599671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.6542011992552668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1088352113275788</v>
       </c>
       <c r="E9" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.01472228879635762</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8099194765090942</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.08531928062439</v>
       </c>
       <c r="H9" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.317520260810852</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.194590210914612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_15</t>
+          <t>model_6_6_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2701866768171776</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.6393893754842033</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1131615433383344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.007795094598643804</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.807688295841217</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.07560133934021</v>
       </c>
       <c r="H10" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.311124205589294</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.186434984207153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_14</t>
+          <t>model_6_6_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.270249474191689</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.6311160369138764</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1096988850306212</v>
       </c>
       <c r="E11" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.00740109182666937</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8076187968254089</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.070173263549805</v>
       </c>
       <c r="H11" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.316243290901184</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.185971140861511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_13</t>
+          <t>model_6_6_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2703742039371297</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.629493838949569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1096225851477152</v>
       </c>
       <c r="E12" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.006967054408021589</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8074807524681091</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.069108843803406</v>
       </c>
       <c r="H12" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.316356301307678</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.185460090637207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_23</t>
+          <t>model_6_6_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2721988795698285</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.6125257273303286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1122901185090787</v>
       </c>
       <c r="E13" t="n">
-        <v>0.988132944913808</v>
+        <v>-0.0003847824012024326</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8054613471031189</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.057976126670837</v>
       </c>
       <c r="H13" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.31241238117218</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.177711129188538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_12</t>
+          <t>model_6_6_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2735029071811721</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.606081241081059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1150592779574428</v>
       </c>
       <c r="E14" t="n">
-        <v>0.988132944913808</v>
+        <v>0.003153067095462592</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8040181994438171</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.053747773170471</v>
       </c>
       <c r="H14" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.308318376541138</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.173546195030212</v>
       </c>
     </row>
     <row r="15">
@@ -885,369 +885,369 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2751792675918482</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.5825086413462224</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1150201049895384</v>
       </c>
       <c r="E15" t="n">
-        <v>0.988132944913808</v>
+        <v>0.01008570230242889</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8021630048751831</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.038281917572021</v>
       </c>
       <c r="H15" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.308376550674438</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.165384650230408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_9</t>
+          <t>model_6_6_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2753724065695222</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.5848257133548802</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1163575590774074</v>
       </c>
       <c r="E16" t="n">
-        <v>0.988132944913808</v>
+        <v>0.01019152102792065</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8019492030143738</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.039802074432373</v>
       </c>
       <c r="H16" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.306398987770081</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.165259957313538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_8</t>
+          <t>model_6_6_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2793419589180398</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.5519992147507926</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1219608684224608</v>
       </c>
       <c r="E17" t="n">
-        <v>0.988132944913808</v>
+        <v>0.02318843446298524</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7975561022758484</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.018264770507812</v>
       </c>
       <c r="H17" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.298115015029907</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.149959325790405</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_7</t>
+          <t>model_6_6_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2804704855431043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.5390074639415512</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1220544880203492</v>
       </c>
       <c r="E18" t="n">
-        <v>0.988132944913808</v>
+        <v>0.02707771471873166</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7963071465492249</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02936277166008949</v>
+        <v>1.009740829467773</v>
       </c>
       <c r="H18" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.297976493835449</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.145380735397339</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_6</t>
+          <t>model_6_6_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2822417081194114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.5176216640504399</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1217026230056468</v>
       </c>
       <c r="E19" t="n">
-        <v>0.988132944913808</v>
+        <v>0.03317911786602212</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7943469285964966</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02936277166008949</v>
+        <v>0.9957096576690674</v>
       </c>
       <c r="H19" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.298496723175049</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.138197660446167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_5</t>
+          <t>model_6_6_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2859212863213911</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.4791073317678594</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1238467217767782</v>
       </c>
       <c r="E20" t="n">
-        <v>0.988132944913808</v>
+        <v>0.04580973344247619</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7902747392654419</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02936277166008949</v>
+        <v>0.9704404473304749</v>
       </c>
       <c r="H20" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.295326828956604</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.12332820892334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_4</t>
+          <t>model_6_6_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2906256779699956</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.4137773084865946</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1218281599539779</v>
       </c>
       <c r="E21" t="n">
-        <v>0.988132944913808</v>
+        <v>0.06389223783514575</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7850683927536011</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02936277166008949</v>
+        <v>0.9275775551795959</v>
       </c>
       <c r="H21" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.298311233520508</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.102040410041809</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_3</t>
+          <t>model_6_6_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.294727649509721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.3677195609796813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1209835595680633</v>
       </c>
       <c r="E22" t="n">
-        <v>0.988132944913808</v>
+        <v>0.07698244715386693</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7805286049842834</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02936277166008949</v>
+        <v>0.8973591327667236</v>
       </c>
       <c r="H22" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.299559831619263</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.086629986763</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_2</t>
+          <t>model_6_6_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3013369239656286</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.2787927524565632</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1156011034600163</v>
       </c>
       <c r="E23" t="n">
-        <v>0.988132944913808</v>
+        <v>0.1000391062622251</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7732141613960266</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02936277166008949</v>
+        <v>0.8390142917633057</v>
       </c>
       <c r="H23" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.307517409324646</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.059486269950867</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_1</t>
+          <t>model_6_6_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3049633473269423</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9698479899015927</v>
+        <v>-0.227177544377271</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1112899117997808</v>
       </c>
       <c r="E24" t="n">
-        <v>0.988132944913808</v>
+        <v>0.1127205306939467</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7692008018493652</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02936277166008949</v>
+        <v>0.8051497340202332</v>
       </c>
       <c r="H24" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.313891291618347</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01554499659687281</v>
+        <v>1.044556856155396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_11</t>
+          <t>model_6_6_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.312829728598811</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9698479899015927</v>
+        <v>0.05861218002310553</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1133925095918258</v>
       </c>
       <c r="E25" t="n">
-        <v>0.988132944913808</v>
+        <v>0.1982838863063635</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7604950070381165</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02936277166008949</v>
+        <v>0.6176433563232422</v>
       </c>
       <c r="H25" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.310782670974731</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01554499659687281</v>
+        <v>0.9438267946243286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_24</t>
+          <t>model_6_6_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3378535972445872</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9698479899015927</v>
+        <v>0.1868508324083674</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999999934998</v>
+        <v>0.1979665168909164</v>
       </c>
       <c r="E26" t="n">
-        <v>0.988132944913808</v>
+        <v>0.2861014829158793</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7328009605407715</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02936277166008949</v>
+        <v>0.5335061550140381</v>
       </c>
       <c r="H26" t="n">
-        <v>8.334666290465975e-12</v>
+        <v>1.185746192932129</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01554499659687281</v>
+        <v>0.8404428362846375</v>
       </c>
     </row>
   </sheetData>
